--- a/graph_generation/results_prelim/gpt3.5/level_10/k_1.xlsx
+++ b/graph_generation/results_prelim/gpt3.5/level_10/k_1.xlsx
@@ -8,13 +8,15 @@
   </bookViews>
   <sheets>
     <sheet name="o_10" sheetId="1" r:id="rId1"/>
+    <sheet name="o_20" sheetId="2" r:id="rId2"/>
+    <sheet name="o_20_jumbled" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
   <si>
     <t>prompt</t>
   </si>
@@ -28,7 +30,10 @@
     <t>evaluator_response</t>
   </si>
   <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 15 nodes labelled A to O. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+    <t>evaluator_partial_correctness</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 17 nodes labelled A to Q. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the least cost path to travel first from node A to node I, and then from node node I to node J?
    A B C D E F G H I J
@@ -45,145 +50,233 @@
 Solution: Path from A to I: A -&gt; G -&gt; H -&gt; I
 Path from I to J: I -&gt; J
  Given these examples, answer the following quesiton.
-What is the least cost path to travel first from node 0 to node J, and then from node node J to node 14?
-   A B C D E F G H I J K L M N O
- A 0 5 0 0 0 2 0 0 0 0 0 0 0 0 0
- B 5 0 3 2 0 0 0 0 0 0 0 0 0 0 0
- C 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 2 0 0 4 0 0 0 0 0 0 0 0 0 0
- E 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0
- F 2 0 0 0 0 0 4 0 0 0 0 0 0 0 0
- G 0 0 0 0 0 4 0 5 0 0 0 0 0 0 0
- H 0 0 0 0 0 0 5 0 5 0 0 0 0 0 2
- I 0 0 0 0 0 0 0 5 0 3 0 0 0 0 0
- J 0 0 0 0 0 0 0 0 3 0 4 0 0 0 0
- K 0 0 0 0 0 0 0 0 0 4 0 1 0 0 0
- L 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0
- M 0 0 0 0 0 0 0 0 0 0 0 1 0 2 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 2 0 5
- O 0 0 0 0 0 0 0 2 0 0 0 0 0 5 0
+What is the least cost path to travel first from node 0 to node C, and then from node node C to node 16?
+   A B C D E F G H I J K L M N O P Q
+ A 0 5 3 2 0 0 0 0 0 0 4 0 0 0 0 0 0
+ B 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 2 0 0 0 3 5 0 0 0 0 0 0 4 0 0 0 0
+ E 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 0 0 5 0 0 1 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 1 0 4 0 0 0 0 1 0 0 0
+ I 0 0 0 0 0 0 0 4 0 1 0 0 0 0 0 0 0
+ J 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 4
+ K 4 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 3 0 4 0 0 0 0
+ M 0 0 0 4 0 0 0 0 0 0 0 4 0 0 0 0 0
+ N 0 0 0 0 0 0 0 1 0 0 0 0 0 0 5 0 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 4 0
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 1
+ Q 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 1 0
     </t>
   </si>
   <si>
-    <t>Path from A to J: A -&gt; F -&gt; G -&gt; H -&gt; I -&gt; J
-Path from J to O: J -&gt; I -&gt; H -&gt; O</t>
-  </si>
-  <si>
-    <t>To find the least cost path to travel from node 0 to node J, and then from node J to node 14, we can use Dijkstra's algorithm. Here is the step-by-step process:
-1. Start by initializing a list of distances from node 0 to all other nodes. Set the distance of node 0 to be 0 and the distance of all other nodes to be infinity. Also, initialize a list of visited nodes, which initially contains only node 0.
-2. Select the unvisited node with the smallest distance. In this case, it is node 0.
-3. For each neighboring node of the selected node, calculate the distance to that node through the selected node. If this distance is smaller than the current distance of the neighboring node, update its distance.
-4. Mark the selected node as visited.
-5. Repeat steps 2-4 until all nodes have been visited or the destination node (node J) has been visited.
-6. Once we have found the least cost path from node 0 to node J, we can start from node J and repeat the process to find the least cost path from node J to node 14.
-Here is the step-by-step process for this specific example:
-Step 1: Initialize the distances and visited nodes lists
-- Distances: [0, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity]
-- Visited nodes: [0]
-Step 2: Select the unvisited node with the smallest distance (node 0)
-Step 3: Calculate the distance to neighboring nodes through node 0
-- Distance to node 1: 5 (0 to 1)
-- Distance to node 5: 2 (0 to 5)
-Step 4: Mark node 0 as visited
-Step 5: Repeat steps 2-4
-- Node 1 is the unvisited node with the smallest distance
-Step 6: Calculate the distance to neighboring nodes through node 1
-- Distance to node 2: 3 (1 to 2)
-- Distance to node 3: 2 (1 to 3)
-Step 7: Mark node 1 as visited
-Step 8: Repeat steps 2-4
-- Node 3 is the unvisited node with the smallest distance
-Step 9: Calculate the distance to neighboring nodes through node 3
-- Distance to node 4: 4 (3 to 4)
-Step 10: Mark node 3 as visited
-Step 11: Repeat steps 2-4
-- Node 4 is the unvisited node with the smallest distance
-Step 12: Calculate the distance to neighboring nodes through node 4
-- Distance to node 5: 4 (4 to 5)
-Step 13: Mark node 4 as visited
-Step 14: Repeat steps 2-4
-- Node 5 is the unvisited node with the smallest distance
-Step 15: Calculate the distance to neighboring nodes through node 5
-- Distance to node 6: 4 (5 to 6)
-Step 16: Mark node 5 as visited
-Step 17: Repeat steps 2-4
-- Node 6 is the unvisited node with the smallest distance
-Step 18: Calculate the distance to neighboring nodes through node 6
-- Distance to node 7: 5 (6 to 7)
-Step 19: Mark node 6 as visited
-Step 20: Repeat steps 2-4
-- Node 7 is the unvisited node with the smallest distance
-Step 21: Calculate the distance to neighboring nodes through node 7
-- Distance to node 8: 5 (7 to 8)
-Step 22: Mark node 7 as visited
-Step 23: Repeat steps 2-4
-- Node 8 is the unvisited node with the smallest distance
-Step 24: Calculate the distance to neighboring nodes through node 8
-- Distance to node 9: 3 (8 to 9)
-Step 25: Mark node 8 as visited
-Step 26: Repeat steps 2-4
-- Node 9 is the unvisited node with the smallest distance
-Step 27: Calculate the distance to neighboring nodes through node 9
-- Distance to node 10: 4 (9 to 10)
-Step 28: Mark node 9 as visited
-Step 29: Repeat steps 2-4
-- Node 10 is the unvisited node with the smallest distance
-Step 30: Calculate the distance to neighboring nodes through node 10
-- Distance to node 11: 1 (10 to 11)
-Step 31: Mark node 10 as visited
-Step 32: Repeat steps 2-4
-- Node 11 is the unvisited node with the smallest distance
-Step 33: Calculate the distance to neighboring nodes through node 11
-- Distance to node 12: 1 (11 to 12)
-Step 34: Mark node 11 as visited
-Step 35: Repeat steps 2-4
-- Node 12 is the unvisited node with the smallest distance
-Step 36: Calculate the distance to neighboring nodes through node 12
-- Distance to node 13: 2 (12 to 13)
-Step 37: Mark node 12 as visited
-Step 38: Repeat steps 2-4
-- Node 13 is the unvisited node with the smallest distance
-Step 39: Calculate the distance to neighboring nodes through node 13
-- Distance to node 14: 5 (13 to 14)
-Step 40: Mark node 13 as visited
-Step 41: Repeat steps 2-4
-- Node 14 is the unvisited node with the smallest distance
-Step 42: Calculate the distance to neighboring nodes through node 14 (none in this case)
-Step 43: Mark node 14 as visited
-Now, we have the least cost path from node 0 to node J: 0 -&gt; 5 -&gt; 6 -&gt; 7 -&gt; 8 -&gt; 9 -&gt; 10 -&gt; 11 -&gt; 12 -&gt; 13
-To find the least cost path from node J to node 14, we can repeat the same process starting from node J.
-Step 44: Initialize the distances and visited nodes lists
-- Distances: [infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, 0, infinity, infinity, infinity, infinity, infinity]
-- Visited nodes: [J]
-Step 45: Select the unvisited node with the smallest distance (node J)
-Step 46: Calculate the distance to neighboring nodes through node J
-- Distance to node 10: 4 (J to 10)
-- Distance to node 11: 0 (J to 11)
-Step 47: Mark node J as visited
-Step 48: Repeat steps 45-47
-- Node 11 is the unvisited node with the smallest distance
-Step 49: Calculate the distance to neighboring nodes through node 11
-- Distance to node 12: 1 (11 to 12)
-Step 50: Mark node 11 as visited
-Step 51: Repeat steps 45-47
-- Node 12 is the unvisited node with the smallest distance
-Step 52: Calculate the distance to neighboring nodes through node 12
-- Distance to node 13: 2 (12 to 13)
-Step 53: Mark node 12 as visited
-Step 54: Repeat steps 45-47
-- Node 13 is the unvisited node with the smallest distance
-Step 55: Calculate the distance to neighboring nodes through node 13
-- Distance to node 14: 5 (13 to 14)
-Step 56: Mark node 13 as visited
-Step 57: Repeat steps 45-47
-- Node 14 is the unvisited node with the smallest distance
-Step 58: Calculate the distance to neighboring nodes through node 14 (none in this case)
-Step 59: Mark node 14 as visited
-Now, we have the least cost path from node J to node 14: J -&gt; 11 -&gt; 12 -&gt; 13 -&gt; 14
-Therefore, the least cost path to travel first from node 0 to node J, and then from node J to node 14 is: 0 -&gt; 5 -&gt; 6 -&gt; 7 -&gt; 8 -&gt; 9 -&gt; 10 -&gt; 11 -&gt; 12 -&gt; 13 -&gt; 14</t>
+    <t>Path from A to C: A -&gt; C
+Path from C to Q: C -&gt; A -&gt; D -&gt; F -&gt; G -&gt; H -&gt; I -&gt; J -&gt; Q</t>
+  </si>
+  <si>
+    <t>The least cost path to travel from node 0 to node C, and then from node C to node 16 is:
+0 -&gt; A -&gt; C -&gt; R -&gt; S -&gt; Q -&gt; 16</t>
   </si>
   <si>
     <t>Wrong</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 26 nodes labelled A to Z. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+Consider some examples
+Example 1: What is the least cost path to travel first from node A to node S, and then from node node S to node Z?
+   A B C D E F G H I J K L M N O P Q R S T U V W X Y Z
+ A 0 3 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 3 0 5 5 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 1 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 4 0 2 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0
+ H 0 0 0 0 0 0 2 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 0 1 0 5 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 0 0 0 0 5 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 0 5 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 2 0 1 1 0 2 0 0 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 5 0 0 0 0 0 0 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 4 0 0 0 1 4 0 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 2
+ T 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0
+ U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 5 0 0 0 0
+ V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 3 0 0 0
+ W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 3 0 0 0 0
+ X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 5 0
+ Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 5
+ Z 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 5 0
+Solution: Path from A to S: A -&gt; F -&gt; G -&gt; T -&gt; U -&gt; V -&gt; W -&gt; R -&gt; S
+Path from S to Z: S -&gt; Z
+ Given these examples, answer the following quesiton.
+What is the least cost path to travel first from node 0 to node G, and then from node node G to node 25?
+   A B C D E F G H I J K L M N O P Q R S T U V W X Y Z
+ A 0 4 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 4 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 3 0 2 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 0 0 3 0 0 4 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 2 0 0 1 0 0 0 5 5 0 0 0 0 0 0 0 0 0 0 0 3
+ I 0 0 0 0 0 0 0 1 0 4 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 0 0 0 2 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 5 0 0 0 0 0 0 3 0 1 0 0 0 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 2 0 0 0 0 0 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 5 4 0 0 0 0 0 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 3 0 0 0 0 0 0
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 5 0 0 0 0 0
+ U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 5 0 0 0 0
+ V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 2 0 0 0
+ W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 1 0 0
+ X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0
+ Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 4
+ Z 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0
+    </t>
+  </si>
+  <si>
+    <t>Path from A to G: A -&gt; C -&gt; D -&gt; F -&gt; G
+Path from G to Z: G -&gt; F -&gt; H -&gt; Z</t>
+  </si>
+  <si>
+    <t>To find the least cost path from node 0 to node G, we can use Dijkstra's algorithm. 
+Here is the step-by-step process:
+1. Create an array called "dist" to keep track of the least cost to reach each node. Set the initial least cost to infinity for all nodes except for node 0, which is set to 0.
+2. Create a boolean array called "visited" to keep track of visited nodes. Set all values to false initially.
+3. Repeat the following steps until all nodes have been visited:
+   a. Find the node with the smallest least cost that has not been visited. Let's call this node "current". Initially, the current node is node 0.
+   b. Mark the current node as visited.
+   c. Update the least cost to reach all neighboring nodes of the current node. If the new cost is smaller than the current least cost, update the value in the "dist" array.
+4. After all nodes have been visited, the "dist" array will contain the least cost to reach each node from node 0.
+Using this algorithm, we can find the least cost path from node 0 to node G:
+1. Start at node 0.
+2. Visit its neighboring nodes (nodes B and C) and update their least cost in the "dist" array.
+3. Node B has the least cost among the visited nodes, so we move to node B.
+4. Repeat the process, visiting neighboring nodes and updating their least cost until node G is visited.
+5. The least cost path from node 0 to node G is the path with the smallest total cost.
+Now, let's apply Dijkstra's algorithm to find the least cost path from node 0 to node G:
+1. Initialize "dist" array: dist = [0, INF, INF, ..., INF].
+2. Initialize "visited" array: visited = [false, false, false, ..., false].
+3. Set current node to 0.
+4. Mark current node as visited: visited[0] = true.
+5. Update the least cost to reach neighboring nodes: dist[1] = 4, dist[2] = 4.
+6. Find the node with the smallest least cost that has not been visited. In this case, it is node C (dist[2] = 4).
+7. Set current node to C.
+8. Update the least cost to reach neighboring nodes: dist[3] = 7.
+9. Find the node with the smallest least cost that has not been visited. In this case, it is node B (dist[1] = 4).
+10. Set current node to B.
+11. Update the least cost to reach neighboring nodes: dist[4] = 5.
+12. Find the node with the smallest least cost that has not been visited. In this case, it is node E (dist[4] = 5).
+13. Set current node to E.
+14. Update the least cost to reach neighboring nodes: dist[3] = 7.
+15. Find the node with the smallest least cost that has not been visited. In this case, it is node D (dist[3] = 7).
+16. Set current node to D.
+17. Update the least cost to reach neighboring nodes: dist[5] = 10, dist[6] = 9.
+18. Find the node with the smallest least cost that has not been visited. In this case, it is node G (dist[6] = 9).
+19. The least cost path from node 0 to node G is: 0 -&gt; 2 -&gt; 1 -&gt; 4 -&gt; 3 -&gt; 6 (total cost = 9).
+So, the least cost path from node 0 to node G is 0 -&gt; 2 -&gt; 1 -&gt; 4 -&gt; 3 -&gt; 6.
+Now, let's find the least cost path from node G to node 25:
+1. Start at node G.
+2. Visit its neighboring nodes (nodes H and M) and update their least cost in the "dist" array.
+3. Node H has the least cost among the visited nodes, so we move to node H.
+4. Repeat the process, visiting neighboring nodes and updating their least cost until node 25 is visited.
+5. The least cost path from node G to node 25 is the path with the smallest total cost.
+Now, let's apply Dijkstra's algorithm to find the least cost path from node G to node 25:
+1. Initialize "dist" array: dist = [INF, INF, INF, ..., INF].
+2. Initialize "visited" array: visited = [false, false, false, ..., false].
+3. Set current node to G.
+4. Mark current node as visited: visited[6] = true.
+5. Update the least cost to reach neighboring nodes: dist[7] = 2, dist[12] = 5.
+6. Find the node with the smallest least cost that has not been visited. In this case, it is node H (dist[7] = 2).
+7. Set current node to H.
+8.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 26 nodes labelled A to Z. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+Consider some examples
+Example 1: What is the least cost path to travel first from node A to node S, and then from node node S to node Z?
+   A B C D E F G H I J K L M N O P Q R S T U V W X Y Z
+ A 0 3 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 3 0 5 5 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 1 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 4 0 2 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0
+ H 0 0 0 0 0 0 2 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 0 1 0 5 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 0 0 0 0 5 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 0 5 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 2 0 1 1 0 2 0 0 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 5 0 0 0 0 0 0 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 4 0 0 0 1 4 0 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 2
+ T 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0
+ U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 5 0 0 0 0
+ V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 3 0 0 0
+ W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 3 0 0 0 0
+ X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 5 0
+ Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 5
+ Z 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 5 0
+Solution: Path from A to S: A -&gt; F -&gt; G -&gt; T -&gt; U -&gt; V -&gt; W -&gt; R -&gt; S
+Path from S to Z: S -&gt; Z
+ Given these examples, answer the following quesiton.
+What is the least cost path to travel first from node 0 to node D, and then from node node D to node 25?
+   A B C D E F G H I J K L M N O P Q R S T U V W X Y Z
+ A 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 1 0 0 3 2 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 0 3 0 0 0 3 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 3 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 5 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 0 3 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 0 0 0 0 5 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 0 0 0 0 3 0 1 3 0 0 0 0 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ N 0 0 0 0 0 5 0 0 0 0 0 0 0 0 4 0 0 0 0 0 4 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 1 4 3 0 0 0 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 1 0 0 0 0 0 0 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 2 0 0 0 0 0 0
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 4
+ U 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 5 0 0 0 0
+ V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 4 0 0 0
+ W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 1 0 0
+ X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 4 0
+ Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 1
+ Z 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 1 0
+    </t>
+  </si>
+  <si>
+    <t>Path from A to D: A -&gt; C -&gt; D
+Path from D to Z: D -&gt; C -&gt; F -&gt; N -&gt; O -&gt; R -&gt; S -&gt; T -&gt; Z</t>
+  </si>
+  <si>
+    <t>The least cost path from node 0 to node 3 is: 0 -&gt; A -&gt; B -&gt; D
+The least cost path from node 3 to node 25 is: 3 -&gt; C -&gt; Y -&gt; Z</t>
   </si>
 </sst>
 </file>
@@ -541,13 +634,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -560,19 +653,119 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/graph_generation/results_prelim/gpt3.5/level_10/k_1.xlsx
+++ b/graph_generation/results_prelim/gpt3.5/level_10/k_1.xlsx
@@ -33,9 +33,9 @@
     <t>evaluator_partial_correctness</t>
   </si>
   <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 17 nodes labelled A to Q. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 25 nodes labelled A to Y. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
 Consider some examples
-Example 1: What is the least cost path to travel first from node A to node I, and then from node node I to node J?
+Example 1: What is the least cost path to travel first from node A to node I, and then from node node I to node J? Return 2 sequences of nodes in response.
    A B C D E F G H I J
  A 0 1 0 0 2 0 3 0 0 5
  B 1 0 3 4 0 0 0 0 0 0
@@ -50,34 +50,81 @@
 Solution: Path from A to I: A -&gt; G -&gt; H -&gt; I
 Path from I to J: I -&gt; J
  Given these examples, answer the following quesiton.
-What is the least cost path to travel first from node 0 to node C, and then from node node C to node 16?
-   A B C D E F G H I J K L M N O P Q
- A 0 5 3 2 0 0 0 0 0 0 4 0 0 0 0 0 0
- B 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 2 0 0 0 3 5 0 0 0 0 0 0 4 0 0 0 0
- E 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 0 0 0 5 0 0 1 0 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0
- H 0 0 0 0 0 0 1 0 4 0 0 0 0 1 0 0 0
- I 0 0 0 0 0 0 0 4 0 1 0 0 0 0 0 0 0
- J 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 4
- K 4 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 0 3 0 4 0 0 0 0
- M 0 0 0 4 0 0 0 0 0 0 0 4 0 0 0 0 0
- N 0 0 0 0 0 0 0 1 0 0 0 0 0 0 5 0 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 4 0
- P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 1
- Q 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 1 0
+What is the least cost path to travel first from node 0 to node P, and then from node node P to node 24? Return 2 sequences of nodes in response.
+   A B C D E F G H I J K L M N O P Q R S T U V W X Y
+ A 0 5 1 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 5 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 4 0 2 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 0 0 0 2 0 4 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0
+ G 0 0 0 0 0 4 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 1 0 5 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 0 5 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5
+ K 0 0 0 0 4 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 3 0 5 0 0 0 0 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 5 0 2 0 0 0 0 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 2 0 2 0 0 0 0 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 1 0 0 0 0 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 2 0 0 0 0 0 0 0
+ R 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0
+ S 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0
+ U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 2 0 0 0
+ V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 1 0 0
+ W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 4 0
+ X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 2
+ Y 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0
     </t>
   </si>
   <si>
-    <t>Path from A to C: A -&gt; C
-Path from C to Q: C -&gt; A -&gt; D -&gt; F -&gt; G -&gt; H -&gt; I -&gt; J -&gt; Q</t>
-  </si>
-  <si>
-    <t>The least cost path to travel from node 0 to node C, and then from node C to node 16 is:
-0 -&gt; A -&gt; C -&gt; R -&gt; S -&gt; Q -&gt; 16</t>
+    <t>Path from A to P: A -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; R -&gt; Q -&gt; P
+Path from P to Y: P -&gt; Q -&gt; R -&gt; H -&gt; I -&gt; J -&gt; Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The adjacency matrix for the graph can be represented as:
+   A B C D E F G H I J K L M N O P Q R S T U V W X Y
+ 0 0 5 1 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ 1 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ 2 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ 3 5 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ 4 0 0 0 4 0 2 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0
+ 5 0 0 0 0 2 0 4 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0
+ 6 0 0 0 0 0 4 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ 7 0 0 0 0 0 0 1 0 5 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0
+ 8 0 0 0 0 0 0 0 5 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ 9 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5
+ 10 0 0 0 0 4 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0
+ 11 0 0 0 0 0 0 0 0 0 3 0 5 0 0 0 0 0 0 0 0 0 0 0 0
+ 12 0 0 0 0 0 0 0 0 0 0 5 0 2 0 0 0 0 0 0 0 0 0 0 0
+ 13 0 0 0 0 0 0 0 0 0 0 0 2 0 2 0 0 0 0 0 0 0 0 0 0
+ 14 0 0 0 0 0 0 0 0 0 0 0 0 2 0 1 0 0 0 0 0 0 0 0 0
+ 15 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0
+ 16 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 2 0 0 0 0 0 0 0
+ 17 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
+ 18 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0
+ 19 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0
+ 20 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 2 0 0 0
+ 21 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 1 0 0
+ 22 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 4 0
+ 23 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 2
+ 24 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 2 0
+To find the least cost path from node 0 to node P and then from node P to node 24, we can use Dijkstra's algorithm.
+1. Initialize an empty list 'visited' to keep track of visited nodes.
+2. Create a list 'distance' with initial values as infinity for all nodes except node 0, which is set to 0.
+3. Create a list 'previous' to keep track of the previous node in the shortest path.
+4. Start with node 0 and calculate the minimum cost to reach each adjacent node. Update the 'distance' and 'previous' lists accordingly.
+5. Mark the current node as visited and add it to the 'visited' list.
+6. Find the unvisited node with the smallest 'distance' value and repeat step 4 with this node.
+7. Continue steps 4-6 until all nodes have been visited.
+8. Using the 'previous' list, backtrack from node P to node 0 and store the path in a list.
+9. Using the 'previous' list, backtrack from node 24 to node P and store the path in a separate list.
+10. Reverse both lists to get the correct order of nodes in the paths.
+Using this algorithm, the least cost path from node 0 to node P is: 0 -&gt; C -&gt; B -&gt; P
+And the least cost path from node P to node 24 is: P -&gt; O -&gt; N -&gt; M -&gt; Y -&gt; X -&gt; W -&gt; S -&gt; T -&gt; K -&gt; E -&gt; D -&gt; R -&gt; Q -&gt; V -&gt; U -&gt; I -&gt; H -&gt; F -&gt; G -&gt; J -&gt; L -&gt; 
+</t>
   </si>
   <si>
     <t>Wrong</t>
@@ -88,7 +135,7 @@
   <si>
     <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 26 nodes labelled A to Z. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
 Consider some examples
-Example 1: What is the least cost path to travel first from node A to node S, and then from node node S to node Z?
+Example 1: What is the least cost path to travel first from node A to node S, and then from node node S to node Z? Return 2 sequences of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T U V W X Y Z
  A 0 3 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
  B 3 0 5 5 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
@@ -119,97 +166,48 @@
 Solution: Path from A to S: A -&gt; F -&gt; G -&gt; T -&gt; U -&gt; V -&gt; W -&gt; R -&gt; S
 Path from S to Z: S -&gt; Z
  Given these examples, answer the following quesiton.
-What is the least cost path to travel first from node 0 to node G, and then from node node G to node 25?
+What is the least cost path to travel first from node 0 to node H, and then from node node H to node 25? Return 2 sequences of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T U V W X Y Z
- A 0 4 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 4 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 3 0 2 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 0 0 0 3 0 0 4 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 0 0 2 0 0 1 0 0 0 5 5 0 0 0 0 0 0 0 0 0 0 0 3
- I 0 0 0 0 0 0 0 1 0 4 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- J 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 0 0 2 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- M 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 5 0 0 0 0 0 0 3 0 1 0 0 0 0 0 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 2 0 0 0 0 0 0 0 0 0 0
- P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0
- Q 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 5 4 0 0 0 0 0 0 0
- R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0
- S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 3 0 0 0 0 0 0
- T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 5 0 0 0 0 0
- U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 5 0 0 0 0
- V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 2 0 0 0
- W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 1 0 0
- X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0
- Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 4
- Z 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0
+ A 0 3 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 2 0 0 4 4 2 5 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4
+ D 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 5 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 2 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 2 0 0 0 0 0 0 0 5 5 4 3 0 0 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 3 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 5 0 0 0 0 0 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 2 1 0 0 0 0 0 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 4 0 0 0 0 0 0
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 5 0 0 0 0 0
+ U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 1 0 0 0 0
+ V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 2 0 0 0
+ W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 2 0 0
+ X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 5 0
+ Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 1
+ Z 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
     </t>
   </si>
   <si>
-    <t>Path from A to G: A -&gt; C -&gt; D -&gt; F -&gt; G
-Path from G to Z: G -&gt; F -&gt; H -&gt; Z</t>
-  </si>
-  <si>
-    <t>To find the least cost path from node 0 to node G, we can use Dijkstra's algorithm. 
-Here is the step-by-step process:
-1. Create an array called "dist" to keep track of the least cost to reach each node. Set the initial least cost to infinity for all nodes except for node 0, which is set to 0.
-2. Create a boolean array called "visited" to keep track of visited nodes. Set all values to false initially.
-3. Repeat the following steps until all nodes have been visited:
-   a. Find the node with the smallest least cost that has not been visited. Let's call this node "current". Initially, the current node is node 0.
-   b. Mark the current node as visited.
-   c. Update the least cost to reach all neighboring nodes of the current node. If the new cost is smaller than the current least cost, update the value in the "dist" array.
-4. After all nodes have been visited, the "dist" array will contain the least cost to reach each node from node 0.
-Using this algorithm, we can find the least cost path from node 0 to node G:
-1. Start at node 0.
-2. Visit its neighboring nodes (nodes B and C) and update their least cost in the "dist" array.
-3. Node B has the least cost among the visited nodes, so we move to node B.
-4. Repeat the process, visiting neighboring nodes and updating their least cost until node G is visited.
-5. The least cost path from node 0 to node G is the path with the smallest total cost.
-Now, let's apply Dijkstra's algorithm to find the least cost path from node 0 to node G:
-1. Initialize "dist" array: dist = [0, INF, INF, ..., INF].
-2. Initialize "visited" array: visited = [false, false, false, ..., false].
-3. Set current node to 0.
-4. Mark current node as visited: visited[0] = true.
-5. Update the least cost to reach neighboring nodes: dist[1] = 4, dist[2] = 4.
-6. Find the node with the smallest least cost that has not been visited. In this case, it is node C (dist[2] = 4).
-7. Set current node to C.
-8. Update the least cost to reach neighboring nodes: dist[3] = 7.
-9. Find the node with the smallest least cost that has not been visited. In this case, it is node B (dist[1] = 4).
-10. Set current node to B.
-11. Update the least cost to reach neighboring nodes: dist[4] = 5.
-12. Find the node with the smallest least cost that has not been visited. In this case, it is node E (dist[4] = 5).
-13. Set current node to E.
-14. Update the least cost to reach neighboring nodes: dist[3] = 7.
-15. Find the node with the smallest least cost that has not been visited. In this case, it is node D (dist[3] = 7).
-16. Set current node to D.
-17. Update the least cost to reach neighboring nodes: dist[5] = 10, dist[6] = 9.
-18. Find the node with the smallest least cost that has not been visited. In this case, it is node G (dist[6] = 9).
-19. The least cost path from node 0 to node G is: 0 -&gt; 2 -&gt; 1 -&gt; 4 -&gt; 3 -&gt; 6 (total cost = 9).
-So, the least cost path from node 0 to node G is 0 -&gt; 2 -&gt; 1 -&gt; 4 -&gt; 3 -&gt; 6.
-Now, let's find the least cost path from node G to node 25:
-1. Start at node G.
-2. Visit its neighboring nodes (nodes H and M) and update their least cost in the "dist" array.
-3. Node H has the least cost among the visited nodes, so we move to node H.
-4. Repeat the process, visiting neighboring nodes and updating their least cost until node 25 is visited.
-5. The least cost path from node G to node 25 is the path with the smallest total cost.
-Now, let's apply Dijkstra's algorithm to find the least cost path from node G to node 25:
-1. Initialize "dist" array: dist = [INF, INF, INF, ..., INF].
-2. Initialize "visited" array: visited = [false, false, false, ..., false].
-3. Set current node to G.
-4. Mark current node as visited: visited[6] = true.
-5. Update the least cost to reach neighboring nodes: dist[7] = 2, dist[12] = 5.
-6. Find the node with the smallest least cost that has not been visited. In this case, it is node H (dist[7] = 2).
-7. Set current node to H.
-8.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 26 nodes labelled A to Z. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+    <t>Path from A to H: A -&gt; C -&gt; G -&gt; H
+Path from H to Z: H -&gt; G -&gt; C -&gt; Z</t>
+  </si>
+  <si>
+    <t>The least cost path from node 0 to node H is: 0 -&gt; C -&gt; G -&gt; H
+The least cost path from node H to node 25 is: H -&gt; I -&gt; J -&gt; N -&gt; O -&gt; P -&gt; Q -&gt; R -&gt; S -&gt; Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 25 nodes labelled A to Y. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
 Consider some examples
-Example 1: What is the least cost path to travel first from node A to node S, and then from node node S to node Z?
+Example 1: What is the least cost path to travel first from node A to node S, and then from node node S to node Z? Return 2 sequences of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T U V W X Y Z
  A 0 3 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
  B 3 0 5 5 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
@@ -240,43 +238,46 @@
 Solution: Path from A to S: A -&gt; F -&gt; G -&gt; T -&gt; U -&gt; V -&gt; W -&gt; R -&gt; S
 Path from S to Z: S -&gt; Z
  Given these examples, answer the following quesiton.
-What is the least cost path to travel first from node 0 to node D, and then from node node D to node 25?
-   A B C D E F G H I J K L M N O P Q R S T U V W X Y Z
- A 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 1 0 0 3 2 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 0 0 3 0 0 0 3 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 0 3 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 0 0 0 5 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- I 0 0 0 0 0 0 0 3 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- J 0 0 0 0 0 0 0 0 5 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 0 0 0 3 0 1 3 0 0 0 0 0 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- M 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- N 0 0 0 0 0 5 0 0 0 0 0 0 0 0 4 0 0 0 0 0 4 0 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 1 4 3 0 0 0 0 0 0 0 0
- P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
- Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0
- R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 1 0 0 0 0 0 0 0
- S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 2 0 0 0 0 0 0
- T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 4
- U 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 5 0 0 0 0
- V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 4 0 0 0
- W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 1 0 0
- X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 4 0
- Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 1
- Z 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 1 0
+What is the least cost path to travel first from node 0 to node H, and then from node node H to node 24? Return 2 sequences of nodes in response.
+   A B C D E F G H I J K L M N O P Q R S T U V W X Y
+ A 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 1 0 4 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 1 0 0 0 0 2 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 4 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2
+ H 0 0 0 0 0 0 4 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 0 3 0 1 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 0 0 0 2 0 0 5 0 2 4 0 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 5 0 4 0 0 0 0 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 5 0 3 0 0 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 2 0 0 0 0 0 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 3 0 0 0 0 0 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 5 0 0 0 0 0
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 5 0 0 0 0
+ U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 1 0 0 0
+ V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 4 0 0
+ W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 1 0
+ X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 4
+ Y 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0
     </t>
   </si>
   <si>
-    <t>Path from A to D: A -&gt; C -&gt; D
-Path from D to Z: D -&gt; C -&gt; F -&gt; N -&gt; O -&gt; R -&gt; S -&gt; T -&gt; Z</t>
-  </si>
-  <si>
-    <t>The least cost path from node 0 to node 3 is: 0 -&gt; A -&gt; B -&gt; D
-The least cost path from node 3 to node 25 is: 3 -&gt; C -&gt; Y -&gt; Z</t>
+    <t>Path from A to H: A -&gt; E -&gt; G -&gt; H
+Path from H to Y: H -&gt; G -&gt; Y</t>
+  </si>
+  <si>
+    <t>The least cost path to travel from node 0 to node 7 (H), and then from node 7 (H) to node 24 is as follows:
+Path from 0 to 7: 0 -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H
+Path from 7 to 24: H -&gt; I -&gt; K -&gt; L -&gt; N -&gt; O -&gt; P -&gt; S -&gt; V -&gt; Y
+Therefore, the two sequences of nodes are:
+0 -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H
+H -&gt; I -&gt; K -&gt; L -&gt; N -&gt; O -&gt; P -&gt; S -&gt; V -&gt; Y</t>
   </si>
 </sst>
 </file>

--- a/graph_generation/results_prelim/gpt3.5/level_10/k_1.xlsx
+++ b/graph_generation/results_prelim/gpt3.5/level_10/k_1.xlsx
@@ -8,15 +8,13 @@
   </bookViews>
   <sheets>
     <sheet name="o_10" sheetId="1" r:id="rId1"/>
-    <sheet name="o_20" sheetId="2" r:id="rId2"/>
-    <sheet name="o_20_jumbled" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>prompt</t>
   </si>
@@ -33,7 +31,7 @@
     <t>evaluator_partial_correctness</t>
   </si>
   <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 25 nodes labelled A to Y. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 15 nodes labelled A to O. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the least cost path to travel first from node A to node I, and then from node node I to node J? Return 2 sequences of nodes in response.
    A B C D E F G H I J
@@ -50,234 +48,55 @@
 Solution: Path from A to I: A -&gt; G -&gt; H -&gt; I
 Path from I to J: I -&gt; J
  Given these examples, answer the following quesiton.
-What is the least cost path to travel first from node 0 to node P, and then from node node P to node 24? Return 2 sequences of nodes in response.
-   A B C D E F G H I J K L M N O P Q R S T U V W X Y
- A 0 5 1 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 5 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 0 0 0 4 0 2 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 0 0 0 0 2 0 4 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0
- G 0 0 0 0 0 4 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 0 0 0 1 0 5 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0
- I 0 0 0 0 0 0 0 5 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- J 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5
- K 0 0 0 0 4 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 0 3 0 5 0 0 0 0 0 0 0 0 0 0 0 0
- M 0 0 0 0 0 0 0 0 0 0 0 5 0 2 0 0 0 0 0 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 2 0 2 0 0 0 0 0 0 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 1 0 0 0 0 0 0 0 0 0
- P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0
- Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 2 0 0 0 0 0 0 0
- R 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0
- S 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0
- T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0
- U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 2 0 0 0
- V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 1 0 0
- W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 4 0
- X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 2
- Y 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0
+What is the least cost path to travel first from node A to node K, and then from node node K to node O? Return 2 sequences of nodes in response.
+   A B C D E F G H I J K L M N O
+ A 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 4 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 1 0 4 2 1 0 0 0 0 1 0 0 0 0
+ D 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 0 1 0 0 0 3 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 3 0 2 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 2 0 2 5 0 0 0 0 1
+ I 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0
+ J 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0
+ K 0 0 1 0 0 0 0 0 0 0 0 5 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 5 0 1 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 1 0 3 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 3 0 1
+ O 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0
     </t>
   </si>
   <si>
-    <t>Path from A to P: A -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; R -&gt; Q -&gt; P
-Path from P to Y: P -&gt; Q -&gt; R -&gt; H -&gt; I -&gt; J -&gt; Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The adjacency matrix for the graph can be represented as:
-   A B C D E F G H I J K L M N O P Q R S T U V W X Y
- 0 0 5 1 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- 1 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- 2 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- 3 5 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- 4 0 0 0 4 0 2 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0
- 5 0 0 0 0 2 0 4 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0
- 6 0 0 0 0 0 4 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- 7 0 0 0 0 0 0 1 0 5 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0
- 8 0 0 0 0 0 0 0 5 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- 9 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5
- 10 0 0 0 0 4 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0
- 11 0 0 0 0 0 0 0 0 0 3 0 5 0 0 0 0 0 0 0 0 0 0 0 0
- 12 0 0 0 0 0 0 0 0 0 0 5 0 2 0 0 0 0 0 0 0 0 0 0 0
- 13 0 0 0 0 0 0 0 0 0 0 0 2 0 2 0 0 0 0 0 0 0 0 0 0
- 14 0 0 0 0 0 0 0 0 0 0 0 0 2 0 1 0 0 0 0 0 0 0 0 0
- 15 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0
- 16 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 2 0 0 0 0 0 0 0
- 17 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
- 18 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0
- 19 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0
- 20 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 2 0 0 0
- 21 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 1 0 0
- 22 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 4 0
- 23 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 2
- 24 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 2 0
-To find the least cost path from node 0 to node P and then from node P to node 24, we can use Dijkstra's algorithm.
-1. Initialize an empty list 'visited' to keep track of visited nodes.
-2. Create a list 'distance' with initial values as infinity for all nodes except node 0, which is set to 0.
-3. Create a list 'previous' to keep track of the previous node in the shortest path.
-4. Start with node 0 and calculate the minimum cost to reach each adjacent node. Update the 'distance' and 'previous' lists accordingly.
-5. Mark the current node as visited and add it to the 'visited' list.
-6. Find the unvisited node with the smallest 'distance' value and repeat step 4 with this node.
-7. Continue steps 4-6 until all nodes have been visited.
-8. Using the 'previous' list, backtrack from node P to node 0 and store the path in a list.
-9. Using the 'previous' list, backtrack from node 24 to node P and store the path in a separate list.
-10. Reverse both lists to get the correct order of nodes in the paths.
-Using this algorithm, the least cost path from node 0 to node P is: 0 -&gt; C -&gt; B -&gt; P
-And the least cost path from node P to node 24 is: P -&gt; O -&gt; N -&gt; M -&gt; Y -&gt; X -&gt; W -&gt; S -&gt; T -&gt; K -&gt; E -&gt; D -&gt; R -&gt; Q -&gt; V -&gt; U -&gt; I -&gt; H -&gt; F -&gt; G -&gt; J -&gt; L -&gt; 
-</t>
+    <t>Path from A to K: A -&gt; B -&gt; C -&gt; K
+Path from K to O: K -&gt; C -&gt; F -&gt; G -&gt; H -&gt; O</t>
+  </si>
+  <si>
+    <t>To find the least cost path from node A to node K and then from node K to node O, we can use Dijkstra's algorithm. 
+Starting from node A, we initialize the cost to reach each node as infinity except for node A itself, which has a cost of 0. We also maintain a priority queue of nodes to visit, initially containing only node A. 
+Then, we repeatedly choose the node with the minimum cost from the priority queue and update the costs of its neighboring nodes if a shorter path is found. The algorithm terminates when the priority queue is empty. 
+Here is the step-by-step process:
+1. Initialize the cost and previous node arrays:
+   - Cost array: [0, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity]
+   - Previous node array: [null, null, null, null, null, null, null, null, null, null, null, null, null, null, null]
+2. Initialize the priority queue with node A.
+3. While the priority queue is not empty:
+   - Take the node with the minimum cost (in this case, node A) from the priority queue.
+4. For each neighbor of the current node (A):
+   - If the cost to reach the neighbor through the current node is lower than the current cost in the cost array:
+     - Update the cost of the neighbor.
+     - Update the previous node of the neighbor.
+     - Add the neighbor to the priority queue.
+5. Continue to step 3 until the priority queue is empty.
+6. After the algorithm terminates, the cost array will contain the least cost to reach each node from node A, and the previous node array will contain the previous node in the least cost path.
+The least cost path from node A to node K is: A -&gt; B -&gt; C -&gt; K
+The least cost path from node K to node O is: K -&gt; L -&gt; M -&gt; N -&gt; O</t>
   </si>
   <si>
     <t>Wrong</t>
   </si>
   <si>
     <t>N/A</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 26 nodes labelled A to Z. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
-Consider some examples
-Example 1: What is the least cost path to travel first from node A to node S, and then from node node S to node Z? Return 2 sequences of nodes in response.
-   A B C D E F G H I J K L M N O P Q R S T U V W X Y Z
- A 0 3 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 3 0 5 5 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 1 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 0 4 0 2 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0
- H 0 0 0 0 0 0 2 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- I 0 0 0 0 0 0 0 1 0 5 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- J 0 0 0 0 0 0 0 0 5 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 0 0 5 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0
- M 0 0 0 0 0 0 0 0 0 0 0 2 0 1 1 0 2 0 0 0 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0
- P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
- Q 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 5 0 0 0 0 0 0 0 0
- R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 4 0 0 0 1 4 0 0
- S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 2
- T 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0
- U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 5 0 0 0 0
- V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 3 0 0 0
- W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 3 0 0 0 0
- X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 5 0
- Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 5
- Z 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 5 0
-Solution: Path from A to S: A -&gt; F -&gt; G -&gt; T -&gt; U -&gt; V -&gt; W -&gt; R -&gt; S
-Path from S to Z: S -&gt; Z
- Given these examples, answer the following quesiton.
-What is the least cost path to travel first from node 0 to node H, and then from node node H to node 25? Return 2 sequences of nodes in response.
-   A B C D E F G H I J K L M N O P Q R S T U V W X Y Z
- A 0 3 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 2 0 0 4 4 2 5 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4
- D 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 0 5 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 0 0 0 2 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- I 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- J 0 0 2 0 0 0 0 0 0 0 5 5 4 3 0 0 0 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- M 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 0 3 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 5 0 0 0 0 0 0 0 0 0 0
- P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0
- Q 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 2 1 0 0 0 0 0 0 0
- R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0
- S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 4 0 0 0 0 0 0
- T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 5 0 0 0 0 0
- U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 1 0 0 0 0
- V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 2 0 0 0
- W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 2 0 0
- X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 5 0
- Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 1
- Z 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
-    </t>
-  </si>
-  <si>
-    <t>Path from A to H: A -&gt; C -&gt; G -&gt; H
-Path from H to Z: H -&gt; G -&gt; C -&gt; Z</t>
-  </si>
-  <si>
-    <t>The least cost path from node 0 to node H is: 0 -&gt; C -&gt; G -&gt; H
-The least cost path from node H to node 25 is: H -&gt; I -&gt; J -&gt; N -&gt; O -&gt; P -&gt; Q -&gt; R -&gt; S -&gt; Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 25 nodes labelled A to Y. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
-Consider some examples
-Example 1: What is the least cost path to travel first from node A to node S, and then from node node S to node Z? Return 2 sequences of nodes in response.
-   A B C D E F G H I J K L M N O P Q R S T U V W X Y Z
- A 0 3 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 3 0 5 5 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 1 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 0 4 0 2 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0
- H 0 0 0 0 0 0 2 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- I 0 0 0 0 0 0 0 1 0 5 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- J 0 0 0 0 0 0 0 0 5 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 0 0 5 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0
- M 0 0 0 0 0 0 0 0 0 0 0 2 0 1 1 0 2 0 0 0 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0
- P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
- Q 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 5 0 0 0 0 0 0 0 0
- R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 4 0 0 0 1 4 0 0
- S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 2
- T 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0
- U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 5 0 0 0 0
- V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 3 0 0 0
- W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 3 0 0 0 0
- X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 5 0
- Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 5
- Z 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 5 0
-Solution: Path from A to S: A -&gt; F -&gt; G -&gt; T -&gt; U -&gt; V -&gt; W -&gt; R -&gt; S
-Path from S to Z: S -&gt; Z
- Given these examples, answer the following quesiton.
-What is the least cost path to travel first from node 0 to node H, and then from node node H to node 24? Return 2 sequences of nodes in response.
-   A B C D E F G H I J K L M N O P Q R S T U V W X Y
- A 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 1 0 4 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 1 0 0 0 0 2 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 4 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2
- H 0 0 0 0 0 0 4 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- I 0 0 0 0 0 0 0 3 0 1 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- J 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 0 0 2 0 0 5 0 2 4 0 0 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 0 5 0 4 0 0 0 0 0 0 0 0 0 0 0 0
- M 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 5 0 3 0 0 0 0 0 0 0
- P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 2 0 0 0 0 0 0 0 0
- Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0
- R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 3 0 0 0 0 0 0
- S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 5 0 0 0 0 0
- T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 5 0 0 0 0
- U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 1 0 0 0
- V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 4 0 0
- W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 1 0
- X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 4
- Y 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0
-    </t>
-  </si>
-  <si>
-    <t>Path from A to H: A -&gt; E -&gt; G -&gt; H
-Path from H to Y: H -&gt; G -&gt; Y</t>
-  </si>
-  <si>
-    <t>The least cost path to travel from node 0 to node 7 (H), and then from node 7 (H) to node 24 is as follows:
-Path from 0 to 7: 0 -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H
-Path from 7 to 24: H -&gt; I -&gt; K -&gt; L -&gt; N -&gt; O -&gt; P -&gt; S -&gt; V -&gt; Y
-Therefore, the two sequences of nodes are:
-0 -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H
-H -&gt; I -&gt; K -&gt; L -&gt; N -&gt; O -&gt; P -&gt; S -&gt; V -&gt; Y</t>
   </si>
 </sst>
 </file>
@@ -678,98 +497,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>